--- a/Справочник для Axis Pro GF.xlsx
+++ b/Справочник для Axis Pro GF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491B472-CCCB-4349-A41A-08A33973FE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88198642-057E-8A43-883F-4BD61DC41F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="518">
   <si>
     <t>Тип изделия:</t>
   </si>
@@ -1566,6 +1566,24 @@
   </si>
   <si>
     <t>QWER2020*</t>
+  </si>
+  <si>
+    <t>lia-369@mail.ru</t>
+  </si>
+  <si>
+    <t>Qwer890*</t>
+  </si>
+  <si>
+    <t>orazaliyeva865@gmail.com</t>
+  </si>
+  <si>
+    <t>Qwer567*</t>
+  </si>
+  <si>
+    <t>axisokna.kz@mail.ru</t>
+  </si>
+  <si>
+    <t>Qwer234*</t>
   </si>
 </sst>
 </file>
@@ -12330,7 +12348,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12374,21 +12392,37 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>513</v>
+      </c>
       <c r="C4" s="27" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="27"/>

--- a/Справочник для Axis Pro GF.xlsx
+++ b/Справочник для Axis Pro GF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulmira/Documents/Axis web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88198642-057E-8A43-883F-4BD61DC41F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA232F3-8C15-F045-99E4-D005157E665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1593,7 +1593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1669,6 +1669,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1693,10 +1701,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,8 +1762,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12348,7 +12359,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12392,7 +12403,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>512</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -12453,6 +12464,9 @@
       <c r="G47" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{BF75923F-2700-EA40-8D2C-95CD49C77160}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
